--- a/biology/Botanique/Achillée_naine/Achillée_naine.xlsx
+++ b/biology/Botanique/Achillée_naine/Achillée_naine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Achill%C3%A9e_naine</t>
+          <t>Achillée_naine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Achillea nana
 L'Achillée naine (Achillea nana), encore appelée Faux Génépi, Génépi bâtard, est une espèce de plante herbacée vivace de la famille des Astéracées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Achill%C3%A9e_naine</t>
+          <t>Achillée_naine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante vivace naine à petite, duveteuse grisâtre. Feuilles 1-2 pennatiséquées, à segments nombreux, lancéolés ; feuilles inférieures longuement pétiolées. Capitules blanc cassé, 9-11 mm, en corymbes denses de 6-8. Rochers et éboulis acides. 1 700-3 800 m. Floraison : juillet-septembre. Alpes. (extrait de: Fleurs de montagne, C. Grey-Wilson - M. Blamey, Delachaux &amp; Niestlé).
 Plante à odeur très parfumée à odeur de musc qui persiste longtemps, elle contient une substance aromatique utilisée dans la composition de maintes liqueurs et comme succédané des génépis.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Achill%C3%A9e_naine</t>
+          <t>Achillée_naine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,11 +559,13 @@
           <t>Propriétés et usages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Achillée naine possède une réputation chez les populations des Alpes de tonique,aromatique, stomachique, stimulant, sudorifique et antiépileptique[1].
-Elle s'emploie contre la diarrhée, la dysenterie, les gastralgies et crampes d'estomac, le manque d'appétit, la faiblesse nerveuse et la gêne respiratoire des ascensionnistes[1].
-Elle provoque une hyperémie des voies digestives[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Achillée naine possède une réputation chez les populations des Alpes de tonique,aromatique, stomachique, stimulant, sudorifique et antiépileptique.
+Elle s'emploie contre la diarrhée, la dysenterie, les gastralgies et crampes d'estomac, le manque d'appétit, la faiblesse nerveuse et la gêne respiratoire des ascensionnistes.
+Elle provoque une hyperémie des voies digestives.
 </t>
         </is>
       </c>
